--- a/Pubmed/CCHF/ReferenceSummary_PubMed_Missing_Mar17.xlsx
+++ b/Pubmed/CCHF/ReferenceSummary_PubMed_Missing_Mar17.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671178EF-1F3E-D740-9184-61004F74F2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85791534-BE35-E74D-980C-55DA27DD776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="5080" windowWidth="34560" windowHeight="19780" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t>Authors</t>
   </si>
@@ -188,27 +188,6 @@
   </si>
   <si>
     <t>L, M, S</t>
-  </si>
-  <si>
-    <t>Hawman DW, Meade-White K, Leventhal S, Feldmann F, Okumura A, Smith B, Scott D, Feldmann H</t>
-  </si>
-  <si>
-    <t>Immunocompetent mouse model for Crimean-Congo hemorrhagic fever virus</t>
-  </si>
-  <si>
-    <t>Elife</t>
-  </si>
-  <si>
-    <t>mice</t>
-  </si>
-  <si>
-    <t>MW058028 – MW058030 (GenBank accession numbers for sequenced mouse-adapted CCHFV).</t>
-  </si>
-  <si>
-    <t>liver tissues of infected mice</t>
-  </si>
-  <si>
-    <t>Exprimental, strain Hoti</t>
   </si>
   <si>
     <t>Sudan</t>
@@ -941,11 +920,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1093,7 @@
         <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>36</v>
@@ -1161,7 +1140,7 @@
         <v>47</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>46</v>
@@ -1177,173 +1156,179 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2021</v>
+      <c r="C5" s="12">
+        <v>2024</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="16">
-        <v>33416494</v>
+        <v>39238565</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W5" s="10" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="6" spans="1:23" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:23" ht="160" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="C6" s="15">
         <v>2024</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="16">
-        <v>39238565</v>
+        <v>39565134</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2023</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="160" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="15">
-        <v>2024</v>
+      <c r="C7" s="1">
+        <v>2021</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="16">
-        <v>39565134</v>
+      <c r="E7" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="M7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2023</v>
-      </c>
       <c r="Q7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="T7" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="U7" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="V7" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>2023</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2021</v>
+      </c>
       <c r="Q8" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -1353,38 +1338,39 @@
       <c r="C9" s="1">
         <v>2023</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="M9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P9" s="1">
-        <v>2021</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9"/>
+      <c r="S9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="V9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="64" x14ac:dyDescent="0.2">
@@ -1395,190 +1381,189 @@
         <v>87</v>
       </c>
       <c r="C10" s="1">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="M10" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>104</v>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2010</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R10"/>
-      <c r="S10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="U10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>93</v>
-      </c>
       <c r="M11" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" s="1">
-        <v>2010</v>
+      <c r="O11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>101</v>
       </c>
       <c r="M12" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2020</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>23</v>
+        <v>117</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="112" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40045205</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" s="1">
+        <v>32</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1">
         <v>2020</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="1">
-        <v>2025</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="1">
-        <v>40045205</v>
+      <c r="E14" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="M14" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>27</v>
@@ -1586,43 +1571,43 @@
       <c r="O14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>126</v>
+      <c r="P14" s="1">
+        <v>2016</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M15" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>27</v>
@@ -1631,13 +1616,13 @@
         <v>32</v>
       </c>
       <c r="P15" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>23</v>
@@ -1646,57 +1631,13 @@
         <v>31</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="1">
-        <v>14</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2011</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W12" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W21">
-      <sortCondition ref="A1:A21"/>
+  <autoFilter ref="A1:W11" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W20">
+      <sortCondition ref="A1:A20"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
